--- a/docs/ST4/ST4_13.08.2024_output.xlsx
+++ b/docs/ST4/ST4_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4943 +505,5859 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731440017.5727599</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731440019.0994012</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440017.5727599.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440019.0994012.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.67</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>281.05</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731440019.1133616</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731440019.3888128</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440019.1133616.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440019.3888128.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>281.05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>280.97</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731440022.8867269</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731440023.3498158</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440022.8867269.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440023.3498158.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.01</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.08</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731440028.211922</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731440028.4103785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440028.211922.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440028.4103785.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>281.03</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.76</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731440030.17477</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731440030.17477.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731440030.17477.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>281.42</v>
       </c>
-      <c r="J7" t="n">
-        <v>281.42</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>282.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1.479999999999961</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731440035.4421568</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731440036.7635405</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440035.4421568.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440036.7635405.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.67</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>281.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731440036.7779005</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731440037.0230806</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440036.7779005.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440037.0230806.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>281.05</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>280.97</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731440039.9721065</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731440040.326013</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440039.9721065.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440040.326013.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>280.01</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>280.08</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731440044.413127</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731440044.5909848</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440044.413127.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440044.5909848.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>281.03</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>280.76</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731440046.0692892</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731440049.1080618</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440046.0692892.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440049.1080618.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>281.42</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>281.26</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731440049.31286</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731440049.408828</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440049.31286.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440049.408828.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>280.98</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>281.18</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731440057.231959</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731440057.3615859</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440057.231959.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440057.3615859.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>281.01</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>281.08</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731440057.4965413</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731440057.6966987</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440057.4965413.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440057.6966987.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>280.85</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>281.12</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731440058.1387703</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731440058.2752776</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440058.1387703.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440058.2752776.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>280.52</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>280.85</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3300000000000409</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731440063.8764443</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731440065.6892712</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440063.8764443.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440065.6892712.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>281.89</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>283.61</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.720000000000027</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731440066.2265973</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731440066.2265973.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731440066.2265973.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>283.92</v>
       </c>
-      <c r="J18" t="n">
-        <v>283.92</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>283.49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.4300000000000068</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731440075.8892028</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731440076.1740618</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440075.8892028.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440076.1740618.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.18</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731440082.9225252</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731440083.2795029</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440082.9225252.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440083.2795029.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>130.33</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.19</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731440083.9628842</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731440084.5006871</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440083.9628842.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440084.5006871.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.38</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.42</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731440087.120018</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731440089.1849504</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440087.120018.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440089.1849504.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6441</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6434</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731440094.4021952</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731440094.6103675</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440094.4021952.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440094.6103675.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6425</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6430.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731440095.4816113</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731440096.1364932</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440095.4816113.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440096.1364932.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6426</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6420.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-5.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731440102.3130186</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731440103.182998</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440102.3130186.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440103.182998.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6446.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6447</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731440105.2908373</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731440105.2908373.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731440105.2908373.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6450</v>
       </c>
-      <c r="J26" t="n">
-        <v>6450</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>6452</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731440126.680695</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731440126.9586349</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440126.680695.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440126.9586349.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>227.16</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>227.25</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731440127.222534</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731440129.2919793</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440127.222534.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440129.2919793.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>226.95</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>227.35</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731440130.0213962</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731440130.8343809</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440130.0213962.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440130.8343809.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>226.84</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>226.92</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731440131.7070951</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731440131.7934368</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440131.7070951.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440131.7934368.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>226.55</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>226.83</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731440132.8035798</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731440133.2016957</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440132.8035798.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440133.2016957.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>226.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>226.32</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731440134.3673387</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731440135.023655</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440134.3673387.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440135.023655.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>225.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>226.05</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731440137.8380294</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731440138.0862288</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440137.8380294.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440138.0862288.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>225.59</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>225.66</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731440142.7147956</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731440142.7147956.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731440142.7147956.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>226.94</v>
       </c>
-      <c r="J34" t="n">
-        <v>226.94</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731440143.9068208</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731440143.993249</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440143.9068208.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440143.993249.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1033</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1034.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731440144.1133413</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731440144.2170165</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440144.1133413.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440144.2170165.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1032</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1033.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731440145.3222923</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731440147.2068942</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440145.3222923.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440147.2068942.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1032</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1040.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>8.200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731440147.2218537</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731440148.9464128</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440147.2218537.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440148.9464128.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1040.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1043.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731440150.0646553</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731440150.5728364</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440150.0646553.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440150.5728364.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1046.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1044.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731440154.1210837</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731440154.2063234</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440154.1210837.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440154.2063234.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1044.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1044</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731440154.3646507</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731440155.6668103</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440154.3646507.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440155.6668103.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1050.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-4.399999999999864</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731440156.397391</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731440156.9391146</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440156.397391.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440156.9391146.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1054.4</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1052</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.400000000000091</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731440160.3548522</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731440161.1555457</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440160.3548522.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440161.1555457.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1054.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1053.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731440163.3951702</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731440164.351566</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440163.3951702.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440164.351566.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.119</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>12.133</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.01399999999999935</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731440164.4694118</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731440165.7064836</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440164.4694118.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440165.7064836.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.136</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.194</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.05800000000000161</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731440165.720416</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731440166.0139291</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440165.720416.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440166.0139291.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.194</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.177</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.01700000000000124</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731440166.5037835</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731440166.780623</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440166.5037835.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440166.780623.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.179</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.191</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731440175.9872081</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731440176.0420406</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440175.9872081.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440176.0420406.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.139</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.154</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731440183.6438303</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731440189.4886925</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440183.6438303.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440189.4886925.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>125.88</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>128.46</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-2.580000000000013</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-2.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731440189.5029984</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731440190.2276943</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440189.5029984.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440190.2276943.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>128.46</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>129</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731440194.1880462</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731440194.9018686</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440194.1880462.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440194.9018686.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>129.12</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>128.76</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731440198.5644138</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731440199.033145</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440198.5644138.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440199.033145.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>128.42</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>128.5</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731440199.692537</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731440199.692537.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731440199.692537.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>128.2</v>
       </c>
-      <c r="J53" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>128</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731440200.2565587</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731440200.9402912</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440200.2565587.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440200.9402912.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>163.68</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>163</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731440202.1734433</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731440202.4871154</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440202.1734433.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440202.4871154.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>163.68</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>164.18</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731440202.5666225</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731440204.3122063</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440202.5666225.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440204.3122063.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>164.54</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>165</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731440204.3271663</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731440204.7164123</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440204.3271663.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440204.7164123.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>165</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>165.06</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731440211.1155546</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731440212.733355</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440211.1155546.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440212.733355.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>164.92</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>165.38</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731440222.3168497</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731440222.699386</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440222.3168497.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440222.699386.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>50.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>50.32</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731440223.8074422</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731440225.0818534</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440223.8074422.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440225.0818534.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>50.4</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>50.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1999999999999957</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731440227.5662754</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731440232.582166</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440227.5662754.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440232.582166.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>50.035</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>50.19</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731440235.4707968</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731440235.6674533</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440235.4707968.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440235.6674533.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>50.045</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>50.075</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731440242.5601614</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731440243.369393</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440242.5601614.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440243.369393.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1402.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1400.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731440246.064639</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731440246.2845263</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440246.064639.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440246.2845263.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1395.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1396</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731440247.6958818</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731440248.222341</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440247.6958818.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440248.222341.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1393</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1398</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731440249.7877417</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731440250.1147175</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440249.7877417.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440250.1147175.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1401.4</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1400.6</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.8000000000001819</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731440250.5968902</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731440250.9906518</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440250.5968902.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440250.9906518.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1402.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1401.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731440253.5629406</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731440254.0477457</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440253.5629406.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440254.0477457.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1401.4</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1400.8</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.6000000000001364</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731440257.785735</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731440258.5117722</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440257.785735.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440258.5117722.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.87</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>59.82</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731440261.53054</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731440262.6122355</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440261.53054.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440262.6122355.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>59.94</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>60.02</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.0800000000000054</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731440265.899324</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731440265.9541407</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440265.899324.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440265.9541407.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>59.66</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>59.76</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731440273.6507251</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731440274.3036053</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440273.6507251.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440274.3036053.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>59.7</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>59.73</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.02999999999999403</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731440275.0239103</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731440275.6828492</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440275.0239103.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440275.6828492.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>59.68</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>59.65</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731440276.0836878</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731440276.3459904</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440276.0836878.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440276.3459904.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>99.25</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>99.17</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731440281.778147</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731440282.10431</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440281.778147.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440282.10431.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>100.12</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>99.76000000000001</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731440283.126867</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731440283.3578322</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440283.126867.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440283.3578322.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>100</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>99.93000000000001</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731440289.5878527</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731440289.7492976</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440289.5878527.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440289.7492976.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>100.12</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>99.93000000000001</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731440290.6791131</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731440291.6526232</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440290.6791131.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440291.6526232.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>100.48</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>100.45</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731440294.310828</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731440295.0958295</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731440294.310828.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731440295.0958295.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>56.1</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>56.16</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731440297.8574238</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731440297.9223714</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731440297.8574238.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731440297.9223714.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>56.15</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>56.23</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731440303.9211943</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731440305.6316183</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731440303.9211943.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731440305.6316183.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>56.49</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>56.68</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731440309.4138236</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731440309.578056</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440309.4138236.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440309.578056.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>153.68</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>154.12</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731440315.1960237</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731440315.2907155</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440315.1960237.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440315.2907155.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>155.1</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>154.56</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731440315.647832</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731440315.8331904</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440315.647832.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440315.8331904.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>155.48</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>155.4</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731440319.4994678</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731440319.6659684</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440319.4994678.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440319.6659684.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>157.48</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>157.08</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731440325.2483711</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731440326.2779026</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440325.2483711.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440326.2779026.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.2998</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.2989</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.0009000000000000119</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731440336.2883651</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731440337.2727299</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440336.2883651.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440337.2727299.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.302</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.304</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.002000000000000002</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731440337.7497385</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731440339.1393578</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440337.7497385.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440339.1393578.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>20.489</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>20.385</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.1039999999999992</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731440340.3191113</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731440341.022721</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440340.3191113.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440341.022721.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>20.483</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>20.482</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731440341.9542809</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731440343.038156</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440341.9542809.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440343.038156.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>20.51</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>20.557</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.04699999999999704</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731440353.8921876</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731440354.2261252</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440353.8921876.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440354.2261252.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>20.501</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>20.503</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.001999999999998892</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731440354.972558</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731440355.089043</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440354.972558.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440355.089043.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>20.58</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>20.574</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.005999999999996675</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731440357.1874928</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731440357.2912462</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440357.1874928.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440357.2912462.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>20.476</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>20.492</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.01600000000000179</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731440357.703071</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731440357.703071.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731440357.703071.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>20.469</v>
       </c>
-      <c r="J94" t="n">
-        <v>20.469</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
+      <c r="L94" t="n">
+        <v>20.476</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.006999999999997897</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731440360.0506828</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731440360.5837452</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440360.0506828.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440360.5837452.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>690</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>689.15</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731440360.5997021</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731440363.0063832</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440360.5997021.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440363.0063832.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>689.15</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>687.85</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-1.299999999999955</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731440366.712579</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731440368.0774324</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440366.712579.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440368.0774324.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>685.1</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>687.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731440368.9675665</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731440370.2587066</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440368.9675665.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440370.2587066.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>686.15</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>684.85</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-1.299999999999955</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731440371.1112165</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731440371.888242</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440371.1112165.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440371.888242.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>683.1</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>685.7</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731440374.4000757</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731440374.8965888</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440374.4000757.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440374.8965888.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>153.85</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>153.86</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.01000000000001933</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731440375.6029081</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731440376.1825936</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440375.6029081.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440376.1825936.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>153.35</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>153.5</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731440378.9704869</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731440379.2248778</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440378.9704869.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440379.2248778.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>155.88</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>155.37</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731440379.4397514</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731440382.586494</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440379.4397514.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440382.586494.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>156.18</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>156.18</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5434,98 +6365,116 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731440388.5558126</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731440389.0401988</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440388.5558126.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440389.0401988.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>157.2</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>157.27</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.0700000000000216</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731440391.298069</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731440391.4795742</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440391.298069.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440391.4795742.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>156.18</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>156.31</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -5539,7 +6488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5568,6 +6517,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5576,13 +6535,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1099999999999568</v>
+        <v>-0.32000000000005</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009999999999996073</v>
+        <v>-0.02909090909091364</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.09999999999999995</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
@@ -5600,6 +6565,12 @@
       <c r="D3" t="n">
         <v>1.000000000000051</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5608,13 +6579,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9899999999999807</v>
+        <v>1.029999999999973</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1237499999999976</v>
+        <v>0.1287499999999966</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -5624,13 +6601,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1259999999999977</v>
+        <v>-0.1189999999999998</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01799999999999967</v>
+        <v>-0.01699999999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
@@ -5648,6 +6631,12 @@
       <c r="D6" t="n">
         <v>0.121666666666665</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5664,6 +6653,12 @@
       <c r="D7" t="n">
         <v>1.633333333333401</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5672,13 +6667,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.599999999999994</v>
+        <v>-1.799999999999983</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3199999999999988</v>
+        <v>-0.3599999999999966</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="9">
@@ -5688,13 +6689,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.5</v>
+        <v>-9.5</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
@@ -5712,6 +6719,12 @@
       <c r="D10" t="n">
         <v>0.01399999999999721</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5728,6 +6741,12 @@
       <c r="D11" t="n">
         <v>-0.1360000000000014</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.4099999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5744,6 +6763,12 @@
       <c r="D12" t="n">
         <v>0.0176000000000009</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5752,13 +6777,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7999999999999545</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1599999999999909</v>
+        <v>-0.1360000000000014</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14">
@@ -5776,6 +6807,12 @@
       <c r="D14" t="n">
         <v>0.6500000000000228</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5792,6 +6829,12 @@
       <c r="D15" t="n">
         <v>0.145999999999998</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5808,6 +6851,12 @@
       <c r="D16" t="n">
         <v>0.1162499999999991</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5824,6 +6873,12 @@
       <c r="D17" t="n">
         <v>0.3649999999999878</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5840,6 +6895,12 @@
       <c r="D18" t="n">
         <v>0.1266666666666746</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5856,6 +6917,12 @@
       <c r="D19" t="n">
         <v>-0.01666666666666809</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5872,6 +6939,12 @@
       <c r="D20" t="n">
         <v>0.0005499999999999949</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5886,6 +6959,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
